--- a/Contacts_SE300.xlsx
+++ b/Contacts_SE300.xlsx
@@ -47,9 +47,6 @@
     <t>Planning Manager</t>
   </si>
   <si>
-    <t>Craigs Wilkerson</t>
-  </si>
-  <si>
     <t>Quality Manager</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>Obsydyon@gmail.com</t>
+  </si>
+  <si>
+    <t>Craig Wilkerson</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,10 +478,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -489,13 +489,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -503,35 +503,35 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
       <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Contacts_SE300.xlsx
+++ b/Contacts_SE300.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Brian\My Documents\GitHub\SE300\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muraad Khan\Documents\GitHub\SE300\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Brian Powell</t>
   </si>
@@ -74,9 +74,6 @@
     <t>386-334-3565</t>
   </si>
   <si>
-    <t>zhuy2@my.erau.edu</t>
-  </si>
-  <si>
     <t>773-814-3420</t>
   </si>
   <si>
@@ -87,6 +84,15 @@
   </si>
   <si>
     <t>Craig Wilkerson</t>
+  </si>
+  <si>
+    <t>zhuy3@my.erau.edu</t>
+  </si>
+  <si>
+    <t>864-907-9806</t>
+  </si>
+  <si>
+    <t>aldur275@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -445,7 +451,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,10 +498,10 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -503,7 +509,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -517,7 +529,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -531,7 +543,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -540,9 +552,10 @@
     <hyperlink ref="D5" r:id="rId2"/>
     <hyperlink ref="D3" r:id="rId3"/>
     <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId6"/>
 </worksheet>
 </file>
 
